--- a/file/Layout - Pesquisa coordenadas.xlsx
+++ b/file/Layout - Pesquisa coordenadas.xlsx
@@ -5,10 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GH971FH\Documents\Github\coordenadas_API\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GH971FH\Documents\Github\coordenadas_api_web\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8D1B4-BE6C-42B7-8300-6731E0AC632B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829D5BB2-1475-41AE-9A5E-0F415210DF09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="h/qS0/RJIBHwv595gOa7QHY0OerpayrQfV1VrA3eWxP05qsY23l5TcOZdUTxslS79Pd9liPj+riUMeLGpuE4cg==" workbookSaltValue="f+x0RiNgVa7zNB+opfUVjg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
